--- a/biology/Médecine/Ralentissement_psychomoteur/Ralentissement_psychomoteur.xlsx
+++ b/biology/Médecine/Ralentissement_psychomoteur/Ralentissement_psychomoteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Un ralentissement psychomoteur comprend un ralentissement des pensées et une réduction des mouvements physiques d'un individu. Le ralentissement psychomoteur peut causer un ralentissement des réactions physiques et émotionnelles incluant la parole[1]. Ce type de ralentissement est très commun chez les individus atteints de dépression clinique et de trouble bipolaire, et est également associé à la prise de substances telles que les benzodiazépines[2]. Particulièrement chez les patients hospitalisés, le ralentissement psychomoteur requiert un grand soin médical pour assurer une prise d'aliments adéquate et une hygiène personnelle suffisante. Le consentement éclairé pour un traitement peut s'avérer difficile à obtenir chez ces personnes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Un ralentissement psychomoteur comprend un ralentissement des pensées et une réduction des mouvements physiques d'un individu. Le ralentissement psychomoteur peut causer un ralentissement des réactions physiques et émotionnelles incluant la parole. Ce type de ralentissement est très commun chez les individus atteints de dépression clinique et de trouble bipolaire, et est également associé à la prise de substances telles que les benzodiazépines. Particulièrement chez les patients hospitalisés, le ralentissement psychomoteur requiert un grand soin médical pour assurer une prise d'aliments adéquate et une hygiène personnelle suffisante. Le consentement éclairé pour un traitement peut s'avérer difficile à obtenir chez ces personnes.
 Certains symptômes du ralentissement psychomoteur peuvent inclure :
 Une difficulté inexplicable à effectuer ce qui est considéré comme des tâches d'hygiène personnelle "habituelles" ou "automatiques" pour les personnes "saines" : prendre une douche, s'habiller, se coiffer, se brosser les dents, se préparer à manger ou faire de l'exercice.
 Une difficulté à réaliser des activités physiques qui requièrent normalement un minimum de pensée ou d'effort, comme monter des escaliers, sortir du lit, se préparer à manger ou débarrasser la table après un repas, effectuer des tâches ménagères, répondre au téléphone, etc.
